--- a/copy_sample.xlsx
+++ b/copy_sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>법정코드</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -484,28 +489,17 @@
           <t>대전광역시 서구 둔산로 100</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>대전 서구 둔산동 1420</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>대전 서구 둔산로 100 (둔산동, 대전광역시청)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>둔산1동</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>둔산동</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>지번주소, 도로명주소 모두 있는 문자열</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -522,6 +516,32 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>지번주소, 도로명주소 모두 없는 문자열</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>대전 서구 관저북로13번길</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>도로명주소만 있는 문자열</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
